--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52982</v>
+        <v>55345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorena Souza</t>
+          <t>Pietra Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>6417.52</v>
+        <v>8951.559999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58699</v>
+        <v>37911</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Olivia Duarte</t>
+          <t>Julia Pires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>7819.37</v>
+        <v>8512.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53098</v>
+        <v>23891</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Fernanda Cardoso</t>
+          <t>Marcos Vinicius Sales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>12224.46</v>
+        <v>2983.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95831</v>
+        <v>2903</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sabrina da Conceição</t>
+          <t>Sarah da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>5440.57</v>
+        <v>5245.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24424</v>
+        <v>62907</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Farias</t>
+          <t>Felipe Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>4485.74</v>
+        <v>4004.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41020</v>
+        <v>69774</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Nascimento</t>
+          <t>João Gabriel Santos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>9249.01</v>
+        <v>9539.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53936</v>
+        <v>31990</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Henrique Alves</t>
+          <t>Luiz Otávio Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>3900.28</v>
+        <v>6338.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38222</v>
+        <v>8515</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Sophia Jesus</t>
+          <t>Eduarda Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>4585.57</v>
+        <v>11968.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57924</v>
+        <v>71796</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Enzo Gabriel Rodrigues</t>
+          <t>Giovanna Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>4452.15</v>
+        <v>10900.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40515</v>
+        <v>10081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nicole Vieira</t>
+          <t>Sr. Samuel Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>4641.17</v>
+        <v>11574.54</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55345</v>
+        <v>46498</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietra Moraes</t>
+          <t>Sr. Henrique Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>8951.559999999999</v>
+        <v>8709.469999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37911</v>
+        <v>33182</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia Pires</t>
+          <t>Natália Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>8512.25</v>
+        <v>12086.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23891</v>
+        <v>39429</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Sales</t>
+          <t>Vicente Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>2983.92</v>
+        <v>10895.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2903</v>
+        <v>7151</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarah da Cruz</t>
+          <t>Daniela Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>5245.01</v>
+        <v>5236.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62907</v>
+        <v>82074</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Felipe Mendes</t>
+          <t>Maria Cecília Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>4004.79</v>
+        <v>7230.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69774</v>
+        <v>18004</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Gabriel Santos</t>
+          <t>Maria Fernanda Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>9539.48</v>
+        <v>4978.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31990</v>
+        <v>17023</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Otávio Pereira</t>
+          <t>Yago Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>6338.25</v>
+        <v>5533.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8515</v>
+        <v>25300</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eduarda Rocha</t>
+          <t>Enzo Gomes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>11968.91</v>
+        <v>9536.620000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71796</v>
+        <v>15439</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Giovanna Fernandes</t>
+          <t>Sr. Gustavo Henrique Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>10900.89</v>
+        <v>8617.290000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10081</v>
+        <v>37369</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Samuel Nogueira</t>
+          <t>Maria Luiza Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>11574.54</v>
+        <v>11926.55</v>
       </c>
     </row>
   </sheetData>
